--- a/examples/STM32F103C8T6/bom-v2.xlsx
+++ b/examples/STM32F103C8T6/bom-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Proj\PCBA\examples\STM32F103C8T6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB6D6F-B760-4030-B9A4-AD3F41AD3663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BEDDE2-7444-486C-8200-492F07252E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="3660" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>Designator</t>
   </si>
@@ -149,10 +149,6 @@
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C17477</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1119,7 +1115,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1238,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1275,7 +1271,7 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -1292,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
